--- a/CYZ_reorg/Matlab/2020-10-19_MCMCSTATmprsf_Diagnostics.xlsx
+++ b/CYZ_reorg/Matlab/2020-10-19_MCMCSTATmprsf_Diagnostics.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czhao98\Documents\GitHub\Lopman_SeroShielding\Serological_Shielding\CYZ_reorg\Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czhao\Documents\CYZ GITHUB\Weitz Group\COVID-19\Lopman Covid SeroPos\Serological_Shielding\CYZ_reorg\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E9F65-2E7D-4593-BB2F-08A3D1F48D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="9720"/>
+    <workbookView xWindow="3420" yWindow="6120" windowWidth="25830" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adhoc" sheetId="1" r:id="rId1"/>
@@ -39,22 +40,22 @@
     <t>c</t>
   </si>
   <si>
-    <t>p_symptomatic</t>
-  </si>
-  <si>
-    <t>sd_other</t>
-  </si>
-  <si>
     <t>p_reduced</t>
   </si>
   <si>
-    <t>initCond</t>
+    <t>symptomatic_fraction</t>
+  </si>
+  <si>
+    <t>socialDistancing_other</t>
+  </si>
+  <si>
+    <t>Initial_Condition_Scale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,11 +855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,13 +878,13 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -972,5 +973,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>